--- a/data/trans_orig/P78C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881B82A0-5368-4CB7-B4A6-CFC9525DF3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA7C476B-68A0-4FD9-AFDA-176245A14A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34345C27-BD0D-48CA-8D22-0A375739FCF2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C001B5A-3F60-4D91-93E3-9A94FDB25F76}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,136 +98,136 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -242,202 +242,202 @@
     <t>Jaen</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FD31DE-6569-4F36-B41E-B5B1D9F70340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19A580F-D0CD-43C1-8C19-69034EF24E4F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>2924</v>
+        <v>4945</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2924</v>
+        <v>4945</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2924</v>
+        <v>4945</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>18</v>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2924</v>
+        <v>4945</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>18</v>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1411</v>
+        <v>1358</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>3006</v>
+        <v>2858</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>4417</v>
+        <v>4216</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>23</v>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2557</v>
+        <v>2481</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>3334</v>
+        <v>3216</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>3968</v>
+        <v>3839</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>3783</v>
+        <v>3593</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -1254,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>7751</v>
+        <v>7432</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1071</v>
+        <v>1036</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>33</v>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>1823</v>
+        <v>1748</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4218</v>
+        <v>4236</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1343,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>6600</v>
+        <v>6240</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
@@ -1358,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>10819</v>
+        <v>10476</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>44</v>
@@ -1379,7 +1379,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>5289</v>
+        <v>5272</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -1394,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>7352</v>
+        <v>6952</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -1409,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>12642</v>
+        <v>12224</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3519</v>
+        <v>3551</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -1447,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4137</v>
+        <v>3884</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1462,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>7656</v>
+        <v>7435</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>53</v>
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1554</v>
+        <v>1531</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>56</v>
@@ -1498,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>7417</v>
+        <v>6764</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>58</v>
@@ -1513,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>8971</v>
+        <v>8295</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>61</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>5073</v>
+        <v>5082</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -1549,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>11554</v>
+        <v>10648</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -1564,7 +1564,7 @@
         <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>16627</v>
+        <v>15730</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1102</v>
+        <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>16</v>
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1102</v>
+        <v>1020</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>16</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1102</v>
+        <v>1020</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>1102</v>
+        <v>1020</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2647</v>
+        <v>2600</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>68</v>
@@ -1751,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2245</v>
+        <v>2121</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>70</v>
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>4892</v>
+        <v>4721</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>73</v>
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>76</v>
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>2798</v>
+        <v>2622</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>78</v>
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>3117</v>
+        <v>2950</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>81</v>
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>2966</v>
+        <v>2928</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>5043</v>
+        <v>4743</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -1868,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>8009</v>
+        <v>7671</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>3399</v>
+        <v>3377</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>85</v>
@@ -1906,7 +1906,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>6552</v>
+        <v>6144</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>87</v>
@@ -1921,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>9951</v>
+        <v>9521</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>90</v>
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1364</v>
+        <v>1307</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>93</v>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>2925</v>
+        <v>2792</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>95</v>
@@ -1972,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>4289</v>
+        <v>4099</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>98</v>
@@ -1993,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>4763</v>
+        <v>4684</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
@@ -2008,7 +2008,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>9477</v>
+        <v>8936</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>18</v>
@@ -2023,7 +2023,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="7">
-        <v>14240</v>
+        <v>13620</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>18</v>
@@ -2046,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>28117</v>
+        <v>23809</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>102</v>
@@ -2061,7 +2061,7 @@
         <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>30539</v>
+        <v>24783</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>104</v>
@@ -2076,7 +2076,7 @@
         <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>58656</v>
+        <v>48593</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>106</v>
@@ -2097,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2418</v>
+        <v>2078</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>109</v>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>817</v>
+        <v>703</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>111</v>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>3235</v>
+        <v>2780</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>113</v>
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="7">
-        <v>30535</v>
+        <v>25887</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>18</v>
@@ -2163,7 +2163,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="7">
-        <v>31356</v>
+        <v>25486</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>18</v>
@@ -2178,7 +2178,7 @@
         <v>62</v>
       </c>
       <c r="N27" s="7">
-        <v>61891</v>
+        <v>51373</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>18</v>
@@ -2201,7 +2201,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="7">
-        <v>40164</v>
+        <v>35733</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>116</v>
@@ -2216,7 +2216,7 @@
         <v>66</v>
       </c>
       <c r="I28" s="7">
-        <v>48334</v>
+        <v>41521</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>119</v>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
       <c r="N28" s="7">
-        <v>88498</v>
+        <v>77254</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>122</v>
@@ -2252,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>12431</v>
+        <v>11960</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>125</v>
@@ -2267,7 +2267,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="7">
-        <v>24258</v>
+        <v>24800</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>128</v>
@@ -2282,7 +2282,7 @@
         <v>41</v>
       </c>
       <c r="N29" s="7">
-        <v>36689</v>
+        <v>36760</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>131</v>
@@ -2303,7 +2303,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="7">
-        <v>52595</v>
+        <v>47693</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>18</v>
@@ -2318,7 +2318,7 @@
         <v>92</v>
       </c>
       <c r="I30" s="7">
-        <v>72592</v>
+        <v>66321</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>18</v>
@@ -2333,7 +2333,7 @@
         <v>147</v>
       </c>
       <c r="N30" s="7">
-        <v>125187</v>
+        <v>114014</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>18</v>
